--- a/选课建议相关/2017杭电公选课图鉴.xlsx
+++ b/选课建议相关/2017杭电公选课图鉴.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDU-Intelligent-Science\选课建议相关\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C09D73B-347D-46F0-AD79-962272C3B272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F10238-0930-48D8-92B0-1B8005CA0DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1821,7 +1821,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="mm\-dd"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1973,13 +1973,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1991,7 +1991,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2003,7 +2003,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2015,7 +2015,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2027,7 +2027,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2042,7 +2042,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2057,7 +2057,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2069,7 +2069,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2358,10 +2358,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.1" x14ac:dyDescent="0.15"/>
@@ -2396,7 +2397,7 @@
       <c r="L1" s="44"/>
       <c r="M1" s="30"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
@@ -2413,7 +2414,7 @@
       <c r="L2" s="44"/>
       <c r="M2" s="30"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
@@ -2430,7 +2431,7 @@
       <c r="L3" s="45"/>
       <c r="M3" s="30"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -2469,7 +2470,7 @@
       </c>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:13" ht="26.2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="26.2" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -2510,7 +2511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
@@ -2549,7 +2550,7 @@
       </c>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -2588,7 +2589,7 @@
       </c>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
@@ -2666,7 +2667,7 @@
       </c>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
@@ -2705,7 +2706,7 @@
       </c>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -2785,7 +2786,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>58</v>
       </c>
@@ -2824,7 +2825,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>63</v>
       </c>
@@ -2863,7 +2864,7 @@
       </c>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>67</v>
       </c>
@@ -2902,7 +2903,7 @@
       </c>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
         <v>71</v>
       </c>
@@ -2984,7 +2985,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>82</v>
       </c>
@@ -3062,7 +3063,7 @@
       </c>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>90</v>
       </c>
@@ -3101,7 +3102,7 @@
       </c>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A21" s="26" t="s">
         <v>94</v>
       </c>
@@ -3142,7 +3143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>101</v>
       </c>
@@ -3220,7 +3221,7 @@
       </c>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>112</v>
       </c>
@@ -3259,7 +3260,7 @@
       </c>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A25" s="22" t="s">
         <v>116</v>
       </c>
@@ -3339,7 +3340,7 @@
       </c>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
         <v>126</v>
       </c>
@@ -3378,7 +3379,7 @@
       </c>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>130</v>
       </c>
@@ -3417,7 +3418,7 @@
       </c>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>135</v>
       </c>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>140</v>
       </c>
@@ -3495,7 +3496,7 @@
       </c>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A31" s="22" t="s">
         <v>146</v>
       </c>
@@ -3536,7 +3537,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
         <v>151</v>
       </c>
@@ -3616,7 +3617,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
         <v>160</v>
       </c>
@@ -3696,7 +3697,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>171</v>
       </c>
@@ -3895,7 +3896,7 @@
       </c>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6" t="s">
         <v>187</v>
       </c>
@@ -3934,7 +3935,7 @@
       </c>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
         <v>112</v>
       </c>
@@ -3973,7 +3974,7 @@
       </c>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A43" s="6" t="s">
         <v>112</v>
       </c>
@@ -4092,7 +4093,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
         <v>130</v>
       </c>
@@ -4133,7 +4134,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A47" s="22" t="s">
         <v>203</v>
       </c>
@@ -4174,7 +4175,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6" t="s">
         <v>171</v>
       </c>
@@ -4254,7 +4255,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="26.2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13" ht="26.2" hidden="1" x14ac:dyDescent="0.15">
       <c r="A50" s="22" t="s">
         <v>212</v>
       </c>
@@ -4295,7 +4296,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="26.2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13" ht="26.2" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6" t="s">
         <v>212</v>
       </c>
@@ -4334,7 +4335,7 @@
       </c>
       <c r="M51" s="6"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="22" t="s">
         <v>220</v>
       </c>
@@ -4375,7 +4376,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6" t="s">
         <v>226</v>
       </c>
@@ -4455,7 +4456,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="18" t="s">
         <v>236</v>
       </c>
@@ -4496,7 +4497,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
         <v>240</v>
       </c>
@@ -4537,7 +4538,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
         <v>47</v>
       </c>
@@ -4576,7 +4577,7 @@
       </c>
       <c r="M57" s="6"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="22" t="s">
         <v>244</v>
       </c>
@@ -4697,7 +4698,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="22" t="s">
         <v>253</v>
       </c>
@@ -4738,7 +4739,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6" t="s">
         <v>258</v>
       </c>
@@ -4777,7 +4778,7 @@
       </c>
       <c r="M62" s="6"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6" t="s">
         <v>262</v>
       </c>
@@ -4857,7 +4858,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6" t="s">
         <v>90</v>
       </c>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="M65" s="6"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
         <v>270</v>
       </c>
@@ -5017,7 +5018,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6" t="s">
         <v>281</v>
       </c>
@@ -5056,7 +5057,7 @@
       </c>
       <c r="M69" s="6"/>
     </row>
-    <row r="70" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="22" t="s">
         <v>284</v>
       </c>
@@ -5097,7 +5098,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="14" t="s">
         <v>288</v>
       </c>
@@ -5179,7 +5180,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="14" t="s">
         <v>297</v>
       </c>
@@ -5220,7 +5221,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6" t="s">
         <v>126</v>
       </c>
@@ -5259,7 +5260,7 @@
       </c>
       <c r="M74" s="6"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="6" t="s">
         <v>126</v>
       </c>
@@ -5298,7 +5299,7 @@
       </c>
       <c r="M75" s="6"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="8" t="s">
         <v>304</v>
       </c>
@@ -5417,7 +5418,7 @@
       </c>
       <c r="M78" s="6"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6" t="s">
         <v>130</v>
       </c>
@@ -5456,7 +5457,7 @@
       </c>
       <c r="M79" s="6"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
         <v>315</v>
       </c>
@@ -5495,7 +5496,7 @@
       </c>
       <c r="M80" s="6"/>
     </row>
-    <row r="81" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="22" t="s">
         <v>319</v>
       </c>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="M83" s="6"/>
     </row>
-    <row r="84" spans="1:13" ht="26.2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:13" ht="26.2" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" s="22" t="s">
         <v>212</v>
       </c>
@@ -5657,7 +5658,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="26.2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:13" ht="26.2" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" s="22" t="s">
         <v>212</v>
       </c>
@@ -5735,7 +5736,7 @@
       </c>
       <c r="M86" s="6"/>
     </row>
-    <row r="87" spans="1:13" ht="26.2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:13" ht="26.2" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" s="22" t="s">
         <v>212</v>
       </c>
@@ -5776,7 +5777,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="26.2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:13" ht="26.2" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" s="22" t="s">
         <v>212</v>
       </c>
@@ -5815,7 +5816,7 @@
       </c>
       <c r="M88" s="22"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6" t="s">
         <v>337</v>
       </c>
@@ -5854,7 +5855,7 @@
       </c>
       <c r="M89" s="6"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6" t="s">
         <v>160</v>
       </c>
@@ -5893,7 +5894,7 @@
       </c>
       <c r="M90" s="6"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6" t="s">
         <v>341</v>
       </c>
@@ -5932,7 +5933,7 @@
       </c>
       <c r="M91" s="6"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6" t="s">
         <v>171</v>
       </c>
@@ -6127,7 +6128,7 @@
       </c>
       <c r="M96" s="6"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
         <v>353</v>
       </c>
@@ -6166,7 +6167,7 @@
       </c>
       <c r="M97" s="6"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
         <v>358</v>
       </c>
@@ -6205,7 +6206,7 @@
       </c>
       <c r="M98" s="6"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6" t="s">
         <v>240</v>
       </c>
@@ -6244,7 +6245,7 @@
       </c>
       <c r="M99" s="6"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A100" s="22" t="s">
         <v>361</v>
       </c>
@@ -6365,7 +6366,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6" t="s">
         <v>63</v>
       </c>
@@ -6404,7 +6405,7 @@
       </c>
       <c r="M103" s="6"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6" t="s">
         <v>253</v>
       </c>
@@ -6443,7 +6444,7 @@
       </c>
       <c r="M104" s="6"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6" t="s">
         <v>368</v>
       </c>
@@ -6482,7 +6483,7 @@
       </c>
       <c r="M105" s="6"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A106" s="8" t="s">
         <v>112</v>
       </c>
@@ -6562,7 +6563,7 @@
       </c>
       <c r="M107" s="6"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6" t="s">
         <v>375</v>
       </c>
@@ -6601,7 +6602,7 @@
       </c>
       <c r="M108" s="6"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A109" s="8" t="s">
         <v>379</v>
       </c>
@@ -6759,7 +6760,7 @@
       </c>
       <c r="M112" s="6"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6" t="s">
         <v>171</v>
       </c>
@@ -6917,7 +6918,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A117" s="6" t="s">
         <v>391</v>
       </c>
@@ -7075,7 +7076,7 @@
       </c>
       <c r="M120" s="6"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6" t="s">
         <v>358</v>
       </c>
@@ -7114,7 +7115,7 @@
       </c>
       <c r="M121" s="6"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
         <v>401</v>
       </c>
@@ -7153,7 +7154,7 @@
       </c>
       <c r="M122" s="6"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A123" s="8" t="s">
         <v>404</v>
       </c>
@@ -7194,7 +7195,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="13.75" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:13" ht="13.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="A124" s="22" t="s">
         <v>410</v>
       </c>
@@ -7235,7 +7236,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A125" s="6" t="s">
         <v>415</v>
       </c>
@@ -7313,7 +7314,7 @@
       </c>
       <c r="M126" s="6"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A127" s="6" t="s">
         <v>421</v>
       </c>
@@ -7352,7 +7353,7 @@
       </c>
       <c r="M127" s="6"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A128" s="6" t="s">
         <v>425</v>
       </c>
@@ -7391,7 +7392,7 @@
       </c>
       <c r="M128" s="6"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A129" s="6" t="s">
         <v>428</v>
       </c>
@@ -7430,7 +7431,7 @@
       </c>
       <c r="M129" s="6"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A130" s="22" t="s">
         <v>431</v>
       </c>
@@ -7471,7 +7472,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6" t="s">
         <v>435</v>
       </c>
@@ -7510,7 +7511,7 @@
       </c>
       <c r="M131" s="6"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6" t="s">
         <v>438</v>
       </c>
@@ -7588,7 +7589,7 @@
       </c>
       <c r="M133" s="6"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A134" s="6" t="s">
         <v>90</v>
       </c>
@@ -7666,7 +7667,7 @@
       </c>
       <c r="M135" s="6"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A136" s="6" t="s">
         <v>445</v>
       </c>
@@ -7705,7 +7706,7 @@
       </c>
       <c r="M136" s="6"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A137" s="14" t="s">
         <v>448</v>
       </c>
@@ -7746,7 +7747,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A138" s="6" t="s">
         <v>452</v>
       </c>
@@ -7785,7 +7786,7 @@
       </c>
       <c r="M138" s="6"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6" t="s">
         <v>452</v>
       </c>
@@ -7824,7 +7825,7 @@
       </c>
       <c r="M139" s="6"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6" t="s">
         <v>457</v>
       </c>
@@ -7904,7 +7905,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A142" s="6" t="s">
         <v>130</v>
       </c>
@@ -7943,7 +7944,7 @@
       </c>
       <c r="M142" s="6"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A143" s="22" t="s">
         <v>466</v>
       </c>
@@ -7984,7 +7985,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A144" s="22" t="s">
         <v>319</v>
       </c>
@@ -8066,7 +8067,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A146" s="6" t="s">
         <v>471</v>
       </c>
@@ -8105,7 +8106,7 @@
       </c>
       <c r="M146" s="6"/>
     </row>
-    <row r="147" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:13" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A147" s="36" t="s">
         <v>474</v>
       </c>
@@ -8146,7 +8147,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6" t="s">
         <v>478</v>
       </c>
@@ -8304,7 +8305,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A152" s="8" t="s">
         <v>493</v>
       </c>
@@ -8345,7 +8346,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A153" s="6" t="s">
         <v>497</v>
       </c>
@@ -8423,7 +8424,7 @@
       </c>
       <c r="M154" s="6"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A155" s="6" t="s">
         <v>503</v>
       </c>
@@ -8620,7 +8621,7 @@
       </c>
       <c r="M159" s="6"/>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A160" s="6" t="s">
         <v>512</v>
       </c>
@@ -8659,7 +8660,7 @@
       </c>
       <c r="M160" s="6"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A161" s="6" t="s">
         <v>515</v>
       </c>
@@ -8698,7 +8699,7 @@
       </c>
       <c r="M161" s="6"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A162" s="6" t="s">
         <v>517</v>
       </c>
@@ -8737,7 +8738,7 @@
       </c>
       <c r="M162" s="6"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A163" s="6" t="s">
         <v>521</v>
       </c>
@@ -8858,7 +8859,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="166" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:13" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A166" s="22" t="s">
         <v>526</v>
       </c>
@@ -8897,7 +8898,7 @@
       </c>
       <c r="M166" s="22"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A167" s="6" t="s">
         <v>497</v>
       </c>
@@ -8975,7 +8976,7 @@
       </c>
       <c r="M168" s="6"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A169" s="6" t="s">
         <v>530</v>
       </c>
@@ -9053,7 +9054,7 @@
       </c>
       <c r="M170" s="6"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A171" s="22" t="s">
         <v>533</v>
       </c>
@@ -9172,7 +9173,7 @@
       </c>
       <c r="M173" s="6"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A174" s="6" t="s">
         <v>515</v>
       </c>
@@ -9211,7 +9212,7 @@
       </c>
       <c r="M174" s="6"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A175" s="6" t="s">
         <v>544</v>
       </c>
@@ -9250,7 +9251,7 @@
       </c>
       <c r="M175" s="6"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A176" s="6" t="s">
         <v>547</v>
       </c>
@@ -9289,7 +9290,7 @@
       </c>
       <c r="M176" s="6"/>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A177" s="6" t="s">
         <v>515</v>
       </c>
@@ -9329,7 +9330,13 @@
       <c r="M177" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O177" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O177" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="人文任选"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
